--- a/state_results/Rivers/ArawhataDrainatHokioBeachRoad_bbe4a018fa.xlsx
+++ b/state_results/Rivers/ArawhataDrainatHokioBeachRoad_bbe4a018fa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U299"/>
+  <dimension ref="A1:U318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.017</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0178948896744237</v>
+        <v>0.0179024360383068</v>
       </c>
       <c r="H2" t="n">
         <v>0.042</v>
@@ -651,7 +651,7 @@
         <v>0.017</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0178948896744237</v>
+        <v>0.0179024360383068</v>
       </c>
       <c r="H3" t="n">
         <v>0.042</v>
@@ -1041,10 +1041,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.03946</v>
+        <v>0.03934</v>
       </c>
       <c r="G8" t="n">
-        <v>0.058420148608802</v>
+        <v>0.0584062782858298</v>
       </c>
       <c r="H8" t="n">
         <v>0.449</v>
@@ -1055,7 +1055,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0.03681</v>
+        <v>0.03667</v>
       </c>
       <c r="M8" t="n">
         <v>0.08024000000000001</v>
@@ -1118,10 +1118,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.03946</v>
+        <v>0.03934</v>
       </c>
       <c r="G9" t="n">
-        <v>0.058420148608802</v>
+        <v>0.0584062782858298</v>
       </c>
       <c r="H9" t="n">
         <v>0.449</v>
@@ -1132,7 +1132,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.03681</v>
+        <v>0.03667</v>
       </c>
       <c r="M9" t="n">
         <v>0.08024000000000001</v>
@@ -1202,7 +1202,7 @@
         <v>0.018</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0187508252435785</v>
+        <v>0.0187573786648454</v>
       </c>
       <c r="H10" t="n">
         <v>0.063</v>
@@ -1283,7 +1283,7 @@
         <v>0.018</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0187508252435785</v>
+        <v>0.0187573786648454</v>
       </c>
       <c r="H11" t="n">
         <v>0.063</v>
@@ -1838,7 +1838,7 @@
         <v>0.046</v>
       </c>
       <c r="G18" t="n">
-        <v>0.129358720065178</v>
+        <v>0.129332681437586</v>
       </c>
       <c r="H18" t="n">
         <v>2.91</v>
@@ -1849,7 +1849,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>0.04396</v>
+        <v>0.04384</v>
       </c>
       <c r="M18" t="n">
         <v>0.08210000000000001</v>
@@ -1915,7 +1915,7 @@
         <v>0.046</v>
       </c>
       <c r="G19" t="n">
-        <v>0.129358720065178</v>
+        <v>0.129332681437586</v>
       </c>
       <c r="H19" t="n">
         <v>2.91</v>
@@ -1926,7 +1926,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>0.04396</v>
+        <v>0.04384</v>
       </c>
       <c r="M19" t="n">
         <v>0.08210000000000001</v>
@@ -1996,7 +1996,7 @@
         <v>0.02</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0206496033884251</v>
+        <v>0.0206549018992367</v>
       </c>
       <c r="H20" t="n">
         <v>0.066</v>
@@ -2077,7 +2077,7 @@
         <v>0.02</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0206496033884251</v>
+        <v>0.0206549018992367</v>
       </c>
       <c r="H21" t="n">
         <v>0.066</v>
@@ -2158,7 +2158,7 @@
         <v>0.01424</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0476655486864776</v>
+        <v>0.0476660851063999</v>
       </c>
       <c r="H22" t="n">
         <v>0.944055944055944</v>
@@ -2239,7 +2239,7 @@
         <v>0.01424</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0476655486864776</v>
+        <v>0.0476660851063999</v>
       </c>
       <c r="H23" t="n">
         <v>0.944055944055944</v>
@@ -2632,7 +2632,7 @@
         <v>0.046</v>
       </c>
       <c r="G28" t="n">
-        <v>0.129358720065178</v>
+        <v>0.129332681437586</v>
       </c>
       <c r="H28" t="n">
         <v>2.91</v>
@@ -2643,7 +2643,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.04396</v>
+        <v>0.04384</v>
       </c>
       <c r="M28" t="n">
         <v>0.08210000000000001</v>
@@ -2709,7 +2709,7 @@
         <v>0.046</v>
       </c>
       <c r="G29" t="n">
-        <v>0.129358720065178</v>
+        <v>0.129332681437586</v>
       </c>
       <c r="H29" t="n">
         <v>2.91</v>
@@ -2720,7 +2720,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.04396</v>
+        <v>0.04384</v>
       </c>
       <c r="M29" t="n">
         <v>0.08210000000000001</v>
@@ -2790,7 +2790,7 @@
         <v>0.02</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0217930445142638</v>
+        <v>0.0217977431936627</v>
       </c>
       <c r="H30" t="n">
         <v>0.0795</v>
@@ -2871,7 +2871,7 @@
         <v>0.02</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0217930445142638</v>
+        <v>0.0217977431936627</v>
       </c>
       <c r="H31" t="n">
         <v>0.0795</v>
@@ -2952,7 +2952,7 @@
         <v>0.01364</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0418625702503001</v>
+        <v>0.0418630071222556</v>
       </c>
       <c r="H32" t="n">
         <v>0.944055944055944</v>
@@ -3033,7 +3033,7 @@
         <v>0.01364</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0418625702503001</v>
+        <v>0.0418630071222556</v>
       </c>
       <c r="H33" t="n">
         <v>0.944055944055944</v>
@@ -3426,7 +3426,7 @@
         <v>0.046</v>
       </c>
       <c r="G38" t="n">
-        <v>0.172308666102595</v>
+        <v>0.172286260771876</v>
       </c>
       <c r="H38" t="n">
         <v>2.91</v>
@@ -3503,7 +3503,7 @@
         <v>0.046</v>
       </c>
       <c r="G39" t="n">
-        <v>0.172308666102595</v>
+        <v>0.172286260771876</v>
       </c>
       <c r="H39" t="n">
         <v>2.91</v>
@@ -3584,7 +3584,7 @@
         <v>0.0195</v>
       </c>
       <c r="G40" t="n">
-        <v>0.021712289568767</v>
+        <v>0.0217145431812969</v>
       </c>
       <c r="H40" t="n">
         <v>0.0795</v>
@@ -3665,7 +3665,7 @@
         <v>0.0195</v>
       </c>
       <c r="G41" t="n">
-        <v>0.021712289568767</v>
+        <v>0.0217145431812969</v>
       </c>
       <c r="H41" t="n">
         <v>0.0795</v>
@@ -3746,7 +3746,7 @@
         <v>0.01387</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0388596442677539</v>
+        <v>0.0388682707692226</v>
       </c>
       <c r="H42" t="n">
         <v>0.944055944055944</v>
@@ -3827,7 +3827,7 @@
         <v>0.01387</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0388596442677539</v>
+        <v>0.0388682707692226</v>
       </c>
       <c r="H43" t="n">
         <v>0.944055944055944</v>
@@ -4217,10 +4217,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.04941</v>
+        <v>0.04915</v>
       </c>
       <c r="G48" t="n">
-        <v>0.164951272621902</v>
+        <v>0.164927701182146</v>
       </c>
       <c r="H48" t="n">
         <v>2.91</v>
@@ -4231,7 +4231,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.04596</v>
+        <v>0.04584</v>
       </c>
       <c r="M48" t="n">
         <v>0.07340000000000001</v>
@@ -4294,10 +4294,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.04941</v>
+        <v>0.04915</v>
       </c>
       <c r="G49" t="n">
-        <v>0.164951272621902</v>
+        <v>0.164927701182146</v>
       </c>
       <c r="H49" t="n">
         <v>2.91</v>
@@ -4308,7 +4308,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.04596</v>
+        <v>0.04584</v>
       </c>
       <c r="M49" t="n">
         <v>0.07340000000000001</v>
@@ -4880,7 +4880,7 @@
         <v>0.01224</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0389849382332936</v>
+        <v>0.0389934078892811</v>
       </c>
       <c r="H56" t="n">
         <v>0.944055944055944</v>
@@ -4961,7 +4961,7 @@
         <v>0.01224</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0389849382332936</v>
+        <v>0.0389934078892811</v>
       </c>
       <c r="H57" t="n">
         <v>0.944055944055944</v>
@@ -5354,7 +5354,7 @@
         <v>0.052</v>
       </c>
       <c r="G62" t="n">
-        <v>0.170249529509147</v>
+        <v>0.170238474639236</v>
       </c>
       <c r="H62" t="n">
         <v>2.91</v>
@@ -5431,7 +5431,7 @@
         <v>0.052</v>
       </c>
       <c r="G63" t="n">
-        <v>0.170249529509147</v>
+        <v>0.170238474639236</v>
       </c>
       <c r="H63" t="n">
         <v>2.91</v>
@@ -6014,7 +6014,7 @@
         <v>0.00962</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0198756292166822</v>
+        <v>0.0198842557181509</v>
       </c>
       <c r="H70" t="n">
         <v>0.145798567661308</v>
@@ -6095,7 +6095,7 @@
         <v>0.00962</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0198756292166822</v>
+        <v>0.0198842557181509</v>
       </c>
       <c r="H71" t="n">
         <v>0.145798567661308</v>
@@ -7148,7 +7148,7 @@
         <v>0.00979</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0184654274519327</v>
+        <v>0.018474882223899</v>
       </c>
       <c r="H84" t="n">
         <v>0.145798567661308</v>
@@ -7229,7 +7229,7 @@
         <v>0.00979</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0184654274519327</v>
+        <v>0.018474882223899</v>
       </c>
       <c r="H85" t="n">
         <v>0.145798567661308</v>
@@ -8436,7 +8436,7 @@
         <v>0.00962</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01776405430374</v>
+        <v>0.017776375154006</v>
       </c>
       <c r="H100" t="n">
         <v>0.145798567661308</v>
@@ -8517,7 +8517,7 @@
         <v>0.00962</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01776405430374</v>
+        <v>0.017776375154006</v>
       </c>
       <c r="H101" t="n">
         <v>0.145798567661308</v>
@@ -12438,7 +12438,7 @@
         <v>0.00402</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0104874661776371</v>
+        <v>0.0104903984352706</v>
       </c>
       <c r="H150" t="n">
         <v>0.105944055944056</v>
@@ -12449,7 +12449,7 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>0.00104</v>
+        <v>0.00107</v>
       </c>
       <c r="M150" t="n">
         <v>0.01329</v>
@@ -12519,7 +12519,7 @@
         <v>0.00402</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0104874661776371</v>
+        <v>0.0104903984352706</v>
       </c>
       <c r="H151" t="n">
         <v>0.105944055944056</v>
@@ -12530,7 +12530,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
-        <v>0.00104</v>
+        <v>0.00107</v>
       </c>
       <c r="M151" t="n">
         <v>0.01329</v>
@@ -13378,13 +13378,13 @@
         <v>2.85</v>
       </c>
       <c r="G162" t="n">
-        <v>2.72444914331871</v>
+        <v>2.64435031499221</v>
       </c>
       <c r="H162" t="n">
-        <v>8.47299490651986</v>
+        <v>6.5</v>
       </c>
       <c r="I162" t="n">
-        <v>6.275</v>
+        <v>5.71949</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -14035,10 +14035,10 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0.00285</v>
+        <v>0.00286</v>
       </c>
       <c r="G170" t="n">
-        <v>0.009957295112180299</v>
+        <v>0.0099634514774269</v>
       </c>
       <c r="H170" t="n">
         <v>0.105944055944056</v>
@@ -14049,7 +14049,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
-        <v>0.00193</v>
+        <v>0.00195</v>
       </c>
       <c r="M170" t="n">
         <v>0.01345</v>
@@ -14116,10 +14116,10 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0.00285</v>
+        <v>0.00286</v>
       </c>
       <c r="G171" t="n">
-        <v>0.009957295112180299</v>
+        <v>0.0099634514774269</v>
       </c>
       <c r="H171" t="n">
         <v>0.105944055944056</v>
@@ -14130,7 +14130,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
-        <v>0.00193</v>
+        <v>0.00195</v>
       </c>
       <c r="M171" t="n">
         <v>0.01345</v>
@@ -14978,13 +14978,13 @@
         <v>1.7</v>
       </c>
       <c r="G182" t="n">
-        <v>2.27765503930722</v>
+        <v>2.21758091806234</v>
       </c>
       <c r="H182" t="n">
-        <v>8.47299490651986</v>
+        <v>6.5</v>
       </c>
       <c r="I182" t="n">
-        <v>5.45</v>
+        <v>5.25394</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -15638,7 +15638,7 @@
         <v>0.00594</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0133095525157069</v>
+        <v>0.0133142881812812</v>
       </c>
       <c r="H190" t="n">
         <v>0.105944055944056</v>
@@ -15649,7 +15649,7 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
-        <v>0.00221</v>
+        <v>0.00223</v>
       </c>
       <c r="M190" t="n">
         <v>0.01713</v>
@@ -15719,7 +15719,7 @@
         <v>0.00594</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0133095525157069</v>
+        <v>0.0133142881812812</v>
       </c>
       <c r="H191" t="n">
         <v>0.105944055944056</v>
@@ -15730,7 +15730,7 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
-        <v>0.00221</v>
+        <v>0.00223</v>
       </c>
       <c r="M191" t="n">
         <v>0.01713</v>
@@ -16578,10 +16578,10 @@
         <v>1.275</v>
       </c>
       <c r="G202" t="n">
-        <v>1.83187128603162</v>
+        <v>1.77680334155714</v>
       </c>
       <c r="H202" t="n">
-        <v>8.47299490651986</v>
+        <v>5.84645811800856</v>
       </c>
       <c r="I202" t="n">
         <v>4.73</v>
@@ -17238,7 +17238,7 @@
         <v>0.00699</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0138847876856457</v>
+        <v>0.0138993006966159</v>
       </c>
       <c r="H210" t="n">
         <v>0.105944055944056</v>
@@ -17249,7 +17249,7 @@
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
-        <v>0.00348</v>
+        <v>0.0035</v>
       </c>
       <c r="M210" t="n">
         <v>0.01898</v>
@@ -17319,7 +17319,7 @@
         <v>0.00699</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0138847876856457</v>
+        <v>0.0138993006966159</v>
       </c>
       <c r="H211" t="n">
         <v>0.105944055944056</v>
@@ -17330,7 +17330,7 @@
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
-        <v>0.00348</v>
+        <v>0.0035</v>
       </c>
       <c r="M211" t="n">
         <v>0.01898</v>
@@ -18178,7 +18178,7 @@
         <v>1.2</v>
       </c>
       <c r="G222" t="n">
-        <v>1.41665023501094</v>
+        <v>1.41642055367772</v>
       </c>
       <c r="H222" t="n">
         <v>4.5</v>
@@ -18838,7 +18838,7 @@
         <v>0.00709</v>
       </c>
       <c r="G230" t="n">
-        <v>0.0140596458235533</v>
+        <v>0.0140759359379076</v>
       </c>
       <c r="H230" t="n">
         <v>0.0769230769230769</v>
@@ -18849,7 +18849,7 @@
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
-        <v>0.0035</v>
+        <v>0.00357</v>
       </c>
       <c r="M230" t="n">
         <v>0.02876</v>
@@ -18919,7 +18919,7 @@
         <v>0.00709</v>
       </c>
       <c r="G231" t="n">
-        <v>0.0140596458235533</v>
+        <v>0.0140759359379076</v>
       </c>
       <c r="H231" t="n">
         <v>0.0769230769230769</v>
@@ -18930,7 +18930,7 @@
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
-        <v>0.0035</v>
+        <v>0.00357</v>
       </c>
       <c r="M231" t="n">
         <v>0.02876</v>
@@ -19778,7 +19778,7 @@
         <v>0.7</v>
       </c>
       <c r="G242" t="n">
-        <v>0.9070965879383041</v>
+        <v>0.906855702637608</v>
       </c>
       <c r="H242" t="n">
         <v>2.8</v>
@@ -20435,10 +20435,10 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>0.00774</v>
+        <v>0.00776</v>
       </c>
       <c r="G250" t="n">
-        <v>0.0139314595470876</v>
+        <v>0.0139465029550058</v>
       </c>
       <c r="H250" t="n">
         <v>0.0769230769230769</v>
@@ -20516,10 +20516,10 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>0.00774</v>
+        <v>0.00776</v>
       </c>
       <c r="G251" t="n">
-        <v>0.0139314595470876</v>
+        <v>0.0139465029550058</v>
       </c>
       <c r="H251" t="n">
         <v>0.0769230769230769</v>
@@ -22035,10 +22035,10 @@
         </is>
       </c>
       <c r="F270" t="n">
-        <v>0.00774</v>
+        <v>0.00776</v>
       </c>
       <c r="G270" t="n">
-        <v>0.013463716177509</v>
+        <v>0.0134757003924076</v>
       </c>
       <c r="H270" t="n">
         <v>0.0769230769230769</v>
@@ -22049,7 +22049,7 @@
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
-        <v>0.00708</v>
+        <v>0.00713</v>
       </c>
       <c r="M270" t="n">
         <v>0.01702</v>
@@ -22116,10 +22116,10 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>0.00774</v>
+        <v>0.00776</v>
       </c>
       <c r="G271" t="n">
-        <v>0.013463716177509</v>
+        <v>0.0134757003924076</v>
       </c>
       <c r="H271" t="n">
         <v>0.0769230769230769</v>
@@ -22130,7 +22130,7 @@
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
-        <v>0.00708</v>
+        <v>0.00713</v>
       </c>
       <c r="M271" t="n">
         <v>0.01702</v>
@@ -23554,10 +23554,10 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0.00774</v>
+        <v>0.00776</v>
       </c>
       <c r="G289" t="n">
-        <v>0.0138477335922635</v>
+        <v>0.0138597178071621</v>
       </c>
       <c r="H289" t="n">
         <v>0.138461538461538</v>
@@ -23568,7 +23568,7 @@
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
-        <v>0.00708</v>
+        <v>0.00713</v>
       </c>
       <c r="M289" t="n">
         <v>0.01655</v>
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0.00774</v>
+        <v>0.00776</v>
       </c>
       <c r="G290" t="n">
-        <v>0.0138477335922635</v>
+        <v>0.0138597178071621</v>
       </c>
       <c r="H290" t="n">
         <v>0.138461538461538</v>
@@ -23649,7 +23649,7 @@
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
-        <v>0.00708</v>
+        <v>0.00713</v>
       </c>
       <c r="M290" t="n">
         <v>0.01655</v>
@@ -24390,6 +24390,1525 @@
         </is>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F300" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.1164</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0.1343</v>
+      </c>
+      <c r="N300" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="O300" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P300" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T300" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.02742</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0.0415</v>
+      </c>
+      <c r="O301" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P301" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T301" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F302" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.02742</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="N302" t="n">
+        <v>0.0415</v>
+      </c>
+      <c r="O302" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P302" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T302" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F303" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="G303" t="n">
+        <v>456.54</v>
+      </c>
+      <c r="H303" t="n">
+        <v>3100</v>
+      </c>
+      <c r="I303" t="n">
+        <v>1741</v>
+      </c>
+      <c r="J303" t="n">
+        <v>20</v>
+      </c>
+      <c r="K303" t="n">
+        <v>44</v>
+      </c>
+      <c r="L303" t="n">
+        <v>320</v>
+      </c>
+      <c r="M303" t="n">
+        <v>714</v>
+      </c>
+      <c r="N303" t="n">
+        <v>1400</v>
+      </c>
+      <c r="O303" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P303" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T303" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F304" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="G304" t="n">
+        <v>456.54</v>
+      </c>
+      <c r="H304" t="n">
+        <v>3100</v>
+      </c>
+      <c r="I304" t="n">
+        <v>1741</v>
+      </c>
+      <c r="J304" t="n">
+        <v>20</v>
+      </c>
+      <c r="K304" t="n">
+        <v>44</v>
+      </c>
+      <c r="L304" t="n">
+        <v>320</v>
+      </c>
+      <c r="M304" t="n">
+        <v>714</v>
+      </c>
+      <c r="N304" t="n">
+        <v>1400</v>
+      </c>
+      <c r="O304" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P304" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T304" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F305" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="G305" t="n">
+        <v>456.54</v>
+      </c>
+      <c r="H305" t="n">
+        <v>3100</v>
+      </c>
+      <c r="I305" t="n">
+        <v>1741</v>
+      </c>
+      <c r="J305" t="n">
+        <v>20</v>
+      </c>
+      <c r="K305" t="n">
+        <v>44</v>
+      </c>
+      <c r="L305" t="n">
+        <v>320</v>
+      </c>
+      <c r="M305" t="n">
+        <v>714</v>
+      </c>
+      <c r="N305" t="n">
+        <v>1400</v>
+      </c>
+      <c r="O305" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P305" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T305" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F306" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="G306" t="n">
+        <v>456.54</v>
+      </c>
+      <c r="H306" t="n">
+        <v>3100</v>
+      </c>
+      <c r="I306" t="n">
+        <v>1741</v>
+      </c>
+      <c r="J306" t="n">
+        <v>20</v>
+      </c>
+      <c r="K306" t="n">
+        <v>44</v>
+      </c>
+      <c r="L306" t="n">
+        <v>320</v>
+      </c>
+      <c r="M306" t="n">
+        <v>714</v>
+      </c>
+      <c r="N306" t="n">
+        <v>1400</v>
+      </c>
+      <c r="O306" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P306" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T306" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F307" t="n">
+        <v>70.67</v>
+      </c>
+      <c r="G307" t="n">
+        <v>66.614</v>
+      </c>
+      <c r="H307" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="I307" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>70.67</v>
+      </c>
+      <c r="M307" t="n">
+        <v>74.17</v>
+      </c>
+      <c r="N307" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="O307" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P307" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T307" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F308" t="n">
+        <v>0.00804</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.0138662120892913</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.138461538461538</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0.04271</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>0.00699</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0.01649</v>
+      </c>
+      <c r="N308" t="n">
+        <v>0.03346</v>
+      </c>
+      <c r="O308" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P308" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T308" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F309" t="n">
+        <v>0.00804</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.0138662120892913</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0.138461538461538</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0.04271</v>
+      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>0.00699</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0.01649</v>
+      </c>
+      <c r="N309" t="n">
+        <v>0.03346</v>
+      </c>
+      <c r="O309" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P309" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T309" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F310" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="G310" t="n">
+        <v>9.591799999999999</v>
+      </c>
+      <c r="H310" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="I310" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="M310" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="N310" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="O310" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P310" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T310" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U310" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F311" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="G311" t="n">
+        <v>9.591799999999999</v>
+      </c>
+      <c r="H311" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="I311" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="M311" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="N311" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="O311" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P311" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T311" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F312" t="n">
+        <v>3.527</v>
+      </c>
+      <c r="G312" t="n">
+        <v>3.5694</v>
+      </c>
+      <c r="H312" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I312" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>3.527</v>
+      </c>
+      <c r="M312" t="n">
+        <v>4.091</v>
+      </c>
+      <c r="N312" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O312" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P312" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T312" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F313" t="n">
+        <v>10.003</v>
+      </c>
+      <c r="G313" t="n">
+        <v>9.68572</v>
+      </c>
+      <c r="H313" t="n">
+        <v>14.708</v>
+      </c>
+      <c r="I313" t="n">
+        <v>12.308</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>10.336</v>
+      </c>
+      <c r="M313" t="n">
+        <v>11.805</v>
+      </c>
+      <c r="N313" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="O313" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P313" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T313" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U313" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F314" t="n">
+        <v>10.003</v>
+      </c>
+      <c r="G314" t="n">
+        <v>9.68572</v>
+      </c>
+      <c r="H314" t="n">
+        <v>14.708</v>
+      </c>
+      <c r="I314" t="n">
+        <v>12.308</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>10.336</v>
+      </c>
+      <c r="M314" t="n">
+        <v>11.805</v>
+      </c>
+      <c r="N314" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="O314" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P314" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T314" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F315" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="G315" t="n">
+        <v>9.804399999999999</v>
+      </c>
+      <c r="H315" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="I315" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="M315" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="N315" t="n">
+        <v>12</v>
+      </c>
+      <c r="O315" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P315" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T315" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F316" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="G316" t="n">
+        <v>9.804399999999999</v>
+      </c>
+      <c r="H316" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="I316" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="M316" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="N316" t="n">
+        <v>12</v>
+      </c>
+      <c r="O316" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P316" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T316" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F317" t="n">
+        <v>0.0515</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.08105999999999999</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N317" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="O317" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P317" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T317" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Arawhata Drain at Hokio Beach Road</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F318" t="n">
+        <v>0.0515</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.08105999999999999</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M318" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N318" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="O318" t="n">
+        <v>1790083.556</v>
+      </c>
+      <c r="P318" t="n">
+        <v>5500787.423</v>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>Lake Horowhenua</t>
+        </is>
+      </c>
+      <c r="T318" t="inlineStr">
+        <is>
+          <t>Hoki_1a</t>
+        </is>
+      </c>
+      <c r="U318" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/ArawhataDrainatHokioBeachRoad_bbe4a018fa.xlsx
+++ b/state_results/Rivers/ArawhataDrainatHokioBeachRoad_bbe4a018fa.xlsx
@@ -13378,13 +13378,13 @@
         <v>2.85</v>
       </c>
       <c r="G162" t="n">
-        <v>2.64435031499221</v>
+        <v>2.69607894797336</v>
       </c>
       <c r="H162" t="n">
-        <v>6.5</v>
+        <v>7.55350300638651</v>
       </c>
       <c r="I162" t="n">
-        <v>5.71949</v>
+        <v>6.275</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -14978,13 +14978,13 @@
         <v>1.7</v>
       </c>
       <c r="G182" t="n">
-        <v>2.21758091806234</v>
+        <v>2.2563773927982</v>
       </c>
       <c r="H182" t="n">
-        <v>6.5</v>
+        <v>7.55350300638651</v>
       </c>
       <c r="I182" t="n">
-        <v>5.25394</v>
+        <v>5.45</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -16578,10 +16578,10 @@
         <v>1.275</v>
       </c>
       <c r="G202" t="n">
-        <v>1.77680334155714</v>
+        <v>1.81236677673168</v>
       </c>
       <c r="H202" t="n">
-        <v>5.84645811800856</v>
+        <v>7.55350300638651</v>
       </c>
       <c r="I202" t="n">
         <v>4.73</v>
